--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_11.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>322259.0615605251</v>
+        <v>319653.9938601676</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2989156.853416516</v>
+        <v>2995243.613506391</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20349704.61069184</v>
+        <v>20355670.24425593</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4821032.195206849</v>
+        <v>4812737.401672006</v>
       </c>
     </row>
     <row r="11">
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6263639150735023</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,16 +938,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -984,19 +984,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>21.81976115797297</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1093,19 +1093,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>19.84491174912431</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1142,52 +1142,52 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="H8" t="n">
+      <c r="S8" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="I8" t="n">
+      <c r="T8" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>12.57565326968602</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1303,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.2968606583479769</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>19.84491174912431</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,22 +1412,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S11" t="n">
-        <v>22.56635248423083</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T11" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="U11" t="n">
-        <v>25.62029119463083</v>
+        <v>0.6263639150735023</v>
       </c>
       <c r="V11" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1494,19 +1494,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>25.62029119463083</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="T12" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="U12" t="n">
-        <v>22.56635248423083</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1549,29 +1549,29 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="K13" t="n">
-        <v>22.26949182588285</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.721440735106512</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
@@ -1585,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>23.19571111787229</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>22.56635248423083</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="F14" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H14" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="I14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1689,25 +1689,25 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F15" t="n">
-        <v>21.81976115797297</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G15" t="n">
-        <v>25.62029119463083</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="H15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>27.59002526031614</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="G17" t="n">
         <v>27.59002526031614</v>
@@ -1862,7 +1862,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="I17" t="n">
-        <v>24.30129424928645</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1968,19 +1968,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S18" t="n">
-        <v>24.30129424928645</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T18" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="U18" t="n">
-        <v>27.59002526031614</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="V18" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2044,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S19" t="n">
         <v>27.59002526031614</v>
@@ -2056,16 +2056,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="V19" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2090,58 +2090,58 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G20" t="n">
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3.26531605719669</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>116.7833678227963</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>166.6004839263543</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2220,13 +2220,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2333,10 +2333,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>241.0142888776591</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="I23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>59.18805889809373</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2448,16 +2448,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>63.9260459295682</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>241.0142888776591</v>
@@ -2600,10 +2600,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,16 +2631,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>22.53539329780094</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2691,10 +2691,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>128.2298974603009</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2801,19 +2801,19 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2843,19 +2843,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>179.7283339446665</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>108.8935133918426</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2925,19 +2925,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>199.4082444096041</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>215.3939976830282</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3004,13 +3004,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3047,10 +3047,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>27.90062586344898</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,25 +3071,25 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>179.7283339446665</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>215.3939976830282</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3108,13 +3108,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3126,10 +3126,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,22 +3153,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>167.8013228696244</v>
       </c>
       <c r="T33" t="n">
-        <v>189.7190331592112</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3205,13 +3205,13 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="C35" t="n">
         <v>215.3939976830282</v>
@@ -3284,10 +3284,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>34.27455396023186</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3308,28 +3308,28 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>179.7283339446665</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3345,13 +3345,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>132.2466977012805</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3393,19 +3393,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>215.3939976830282</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>148.5012945739651</v>
       </c>
       <c r="W36" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3481,10 +3481,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>189.7190331592112</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>215.3939976830282</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>215.3939976830282</v>
-      </c>
-      <c r="V38" t="n">
-        <v>215.3939976830282</v>
-      </c>
-      <c r="W38" t="n">
-        <v>179.7283339446664</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,16 +3579,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>189.7190331592112</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>191.5691975500731</v>
       </c>
     </row>
     <row r="40">
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3749,61 +3749,61 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>187.9840913941556</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>213.4242636173429</v>
       </c>
-      <c r="G41" t="n">
+      <c r="X41" t="n">
         <v>213.4242636173429</v>
-      </c>
-      <c r="H41" t="n">
-        <v>213.4242636173429</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>177.9933921796108</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3816,31 +3816,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>38.37533825538067</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>172.2628161107796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3958,10 +3958,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.75230336596039</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>14.75230336596039</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>14.75230336596039</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>14.75230336596039</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>14.75230336596039</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>14.75230336596039</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>14.75230336596039</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>14.11961254265382</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>26.38889993046976</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>92.38954941029624</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>66.51046739551762</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>40.631385380739</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>14.75230336596039</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>14.75230336596039</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>14.75230336596039</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>14.75230336596039</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>14.75230336596039</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.75230336596039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>80.44100199269204</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>54.56191997791342</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>28.6828379631348</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.80375594835618</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>78.14188814362404</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>99.73223474306219</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>73.85315272828358</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>47.97407071350496</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>22.09498869872634</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C8" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D8" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E8" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F8" t="n">
-        <v>79.68686933990632</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G8" t="n">
-        <v>53.80778732512771</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H8" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I8" t="n">
         <v>2.049623295570466</v>
@@ -4805,16 +4805,16 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K8" t="n">
+        <v>2.049623295570466</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.049623295570466</v>
+      </c>
+      <c r="M8" t="n">
         <v>26.38889993046976</v>
       </c>
-      <c r="L8" t="n">
-        <v>26.38889993046976</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>51.75298821315428</v>
-      </c>
-      <c r="N8" t="n">
-        <v>77.1170764958388</v>
       </c>
       <c r="O8" t="n">
         <v>77.1170764958388</v>
@@ -4823,31 +4823,31 @@
         <v>102.4811647785233</v>
       </c>
       <c r="Q8" t="n">
-        <v>102.4811647785233</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="R8" t="n">
-        <v>102.4811647785233</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="S8" t="n">
-        <v>102.4811647785233</v>
+        <v>40.631385380739</v>
       </c>
       <c r="T8" t="n">
-        <v>102.4811647785233</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="U8" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V8" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W8" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X8" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y8" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K9" t="n">
-        <v>2.049623295570466</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L9" t="n">
-        <v>26.38889993046976</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M9" t="n">
-        <v>26.38889993046976</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N9" t="n">
-        <v>26.38889993046976</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O9" t="n">
-        <v>51.75298821315428</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P9" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q9" t="n">
         <v>102.4811647785233</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="G10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="H10" t="n">
-        <v>2.049623295570466</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="I10" t="n">
-        <v>2.049623295570466</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="J10" t="n">
-        <v>2.049623295570466</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="K10" t="n">
         <v>2.049623295570466</v>
@@ -4972,40 +4972,40 @@
         <v>52.77779986093951</v>
       </c>
       <c r="N10" t="n">
-        <v>78.14188814362404</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O10" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="P10" t="n">
-        <v>99.73223474306219</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q10" t="n">
-        <v>73.85315272828358</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R10" t="n">
-        <v>47.97407071350496</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S10" t="n">
-        <v>22.09498869872634</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.049623295570466</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="C11" t="n">
-        <v>2.049623295570466</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="D11" t="n">
-        <v>2.049623295570466</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="E11" t="n">
-        <v>2.049623295570466</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="F11" t="n">
-        <v>2.049623295570466</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="G11" t="n">
-        <v>2.049623295570466</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="H11" t="n">
-        <v>2.049623295570466</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="I11" t="n">
-        <v>2.049623295570466</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="J11" t="n">
         <v>2.049623295570466</v>
@@ -5045,46 +5045,46 @@
         <v>27.41371157825499</v>
       </c>
       <c r="L11" t="n">
-        <v>52.77779986093951</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="M11" t="n">
         <v>77.1170764958388</v>
       </c>
       <c r="N11" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O11" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P11" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="Q11" t="n">
-        <v>102.4811647785233</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="R11" t="n">
-        <v>102.4811647785233</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="S11" t="n">
-        <v>79.68686933990632</v>
+        <v>40.631385380739</v>
       </c>
       <c r="T11" t="n">
-        <v>53.80778732512771</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="U11" t="n">
-        <v>27.92870531034908</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="V11" t="n">
-        <v>2.049623295570466</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="W11" t="n">
-        <v>2.049623295570466</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="X11" t="n">
-        <v>2.049623295570466</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.049623295570466</v>
+        <v>14.11961254265382</v>
       </c>
     </row>
     <row r="12">
@@ -5124,34 +5124,34 @@
         <v>2.049623295570466</v>
       </c>
       <c r="L12" t="n">
-        <v>26.38889993046976</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M12" t="n">
-        <v>51.75298821315428</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="N12" t="n">
-        <v>77.1170764958388</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="O12" t="n">
-        <v>77.1170764958388</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="P12" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q12" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="R12" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S12" t="n">
-        <v>50.72300074896609</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="T12" t="n">
-        <v>24.84391873418747</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="U12" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="V12" t="n">
         <v>2.049623295570466</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50.42314149810954</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="C13" t="n">
-        <v>50.42314149810954</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="D13" t="n">
-        <v>50.42314149810954</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E13" t="n">
-        <v>50.42314149810954</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F13" t="n">
-        <v>50.42314149810954</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G13" t="n">
-        <v>50.42314149810954</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H13" t="n">
-        <v>50.42314149810954</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I13" t="n">
-        <v>50.42314149810954</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J13" t="n">
-        <v>24.54405948333093</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K13" t="n">
         <v>2.049623295570466</v>
@@ -5215,34 +5215,34 @@
         <v>102.4811647785233</v>
       </c>
       <c r="P13" t="n">
-        <v>99.73223474306219</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q13" t="n">
-        <v>99.73223474306219</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="R13" t="n">
-        <v>99.73223474306219</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S13" t="n">
-        <v>99.73223474306219</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T13" t="n">
-        <v>99.73223474306219</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U13" t="n">
-        <v>99.73223474306219</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V13" t="n">
-        <v>76.30222351288816</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W13" t="n">
-        <v>50.42314149810954</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X13" t="n">
-        <v>50.42314149810954</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y13" t="n">
-        <v>50.42314149810954</v>
+        <v>76.6020827637447</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>102.4811647785233</v>
+      </c>
+      <c r="C14" t="n">
+        <v>102.4811647785233</v>
+      </c>
+      <c r="D14" t="n">
+        <v>102.4811647785233</v>
+      </c>
+      <c r="E14" t="n">
         <v>79.68686933990632</v>
-      </c>
-      <c r="C14" t="n">
-        <v>79.68686933990632</v>
-      </c>
-      <c r="D14" t="n">
-        <v>53.80778732512771</v>
-      </c>
-      <c r="E14" t="n">
-        <v>53.80778732512771</v>
       </c>
       <c r="F14" t="n">
         <v>53.80778732512771</v>
       </c>
       <c r="G14" t="n">
-        <v>53.80778732512771</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="H14" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I14" t="n">
         <v>2.049623295570466</v>
@@ -5285,13 +5285,13 @@
         <v>52.77779986093951</v>
       </c>
       <c r="M14" t="n">
-        <v>77.1170764958388</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N14" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O14" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P14" t="n">
         <v>102.4811647785233</v>
@@ -5337,22 +5337,22 @@
         <v>102.4811647785233</v>
       </c>
       <c r="D15" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="E15" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="F15" t="n">
-        <v>80.44100199269204</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="G15" t="n">
-        <v>54.56191997791342</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H15" t="n">
-        <v>28.6828379631348</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I15" t="n">
-        <v>2.80375594835618</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J15" t="n">
         <v>2.049623295570466</v>
@@ -5361,19 +5361,19 @@
         <v>2.049623295570466</v>
       </c>
       <c r="L15" t="n">
-        <v>2.049623295570466</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M15" t="n">
-        <v>2.049623295570466</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N15" t="n">
-        <v>26.38889993046976</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O15" t="n">
-        <v>51.75298821315428</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P15" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q15" t="n">
         <v>102.4811647785233</v>
@@ -5437,13 +5437,13 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K16" t="n">
-        <v>2.049623295570477</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L16" t="n">
-        <v>27.413711578255</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M16" t="n">
-        <v>52.77779986093952</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N16" t="n">
         <v>78.14188814362404</v>
@@ -5501,13 +5501,13 @@
         <v>110.3601010412646</v>
       </c>
       <c r="F17" t="n">
-        <v>82.49138865710684</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="G17" t="n">
-        <v>54.62267627294912</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="H17" t="n">
-        <v>26.7539638887914</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="I17" t="n">
         <v>2.207202020825291</v>
@@ -5519,16 +5519,16 @@
         <v>29.52132702853827</v>
       </c>
       <c r="L17" t="n">
-        <v>56.83545203625125</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M17" t="n">
-        <v>83.04597603355158</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N17" t="n">
         <v>83.04597603355158</v>
       </c>
       <c r="O17" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P17" t="n">
         <v>110.3601010412646</v>
@@ -5598,10 +5598,10 @@
         <v>29.52132702853827</v>
       </c>
       <c r="L18" t="n">
+        <v>29.52132702853827</v>
+      </c>
+      <c r="M18" t="n">
         <v>56.83545203625125</v>
-      </c>
-      <c r="M18" t="n">
-        <v>83.04597603355158</v>
       </c>
       <c r="N18" t="n">
         <v>83.04597603355158</v>
@@ -5616,16 +5616,16 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R18" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S18" t="n">
-        <v>85.81333917329844</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="T18" t="n">
-        <v>57.94462678914073</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="U18" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="V18" t="n">
         <v>2.207202020825291</v>
@@ -5692,31 +5692,31 @@
         <v>108.4888536788635</v>
       </c>
       <c r="Q19" t="n">
-        <v>108.4888536788635</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="R19" t="n">
-        <v>108.4888536788635</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="S19" t="n">
-        <v>80.62014129470579</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="T19" t="n">
-        <v>80.62014129470579</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="U19" t="n">
-        <v>80.62014129470579</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="V19" t="n">
-        <v>52.75142891054807</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W19" t="n">
-        <v>52.75142891054807</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X19" t="n">
-        <v>24.88271652639035</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y19" t="n">
-        <v>24.88271652639035</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>752.9257720901863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>752.9257720901863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>752.9257720901863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>752.9257720901863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5777,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>752.9257720901863</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U20" t="n">
-        <v>752.9257720901863</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V20" t="n">
-        <v>752.9257720901863</v>
+        <v>251.810259228364</v>
       </c>
       <c r="W20" t="n">
-        <v>752.9257720901863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X20" t="n">
-        <v>752.9257720901863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y20" t="n">
-        <v>752.9257720901863</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,13 +5805,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>352.9716273967953</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
         <v>19.28114311021272</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>521.1869644168632</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U21" t="n">
-        <v>521.1869644168632</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V21" t="n">
-        <v>521.1869644168632</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W21" t="n">
-        <v>521.1869644168632</v>
+        <v>345.004439675971</v>
       </c>
       <c r="X21" t="n">
-        <v>521.1869644168632</v>
+        <v>345.004439675971</v>
       </c>
       <c r="Y21" t="n">
-        <v>521.1869644168632</v>
+        <v>137.2441409110171</v>
       </c>
     </row>
     <row r="22">
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
         <v>19.28114311021272</v>
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>953.9655401424092</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C23" t="n">
-        <v>710.516763498309</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D23" t="n">
-        <v>710.516763498309</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="E23" t="n">
-        <v>710.516763498309</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="F23" t="n">
-        <v>467.067986854209</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="G23" t="n">
-        <v>467.067986854209</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H23" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6014,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W23" t="n">
-        <v>953.9655401424092</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X23" t="n">
-        <v>953.9655401424092</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y23" t="n">
-        <v>953.9655401424092</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>158.0119685275972</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C24" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6072,16 +6072,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6096,22 +6096,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U24" t="n">
-        <v>461.2466632505798</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V24" t="n">
-        <v>461.2466632505798</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="W24" t="n">
-        <v>217.7978866064798</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="X24" t="n">
-        <v>217.7978866064798</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="Y24" t="n">
-        <v>217.7978866064798</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="25">
@@ -6124,22 +6124,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="C25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
         <v>829.5248650203655</v>
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="C26" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="D26" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="E26" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="F26" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="C26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="F26" t="n">
-        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
         <v>262.7299197543128</v>
@@ -6248,28 +6248,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X26" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>365.4316055857233</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="C27" t="n">
-        <v>190.9785763045963</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D27" t="n">
-        <v>42.04416664334499</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6312,13 +6312,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6339,16 +6339,16 @@
         <v>533.6469426057913</v>
       </c>
       <c r="V27" t="n">
-        <v>533.6469426057913</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W27" t="n">
-        <v>533.6469426057913</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="X27" t="n">
-        <v>533.6469426057913</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="Y27" t="n">
-        <v>533.6469426057913</v>
+        <v>168.9696854242497</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>452.3709090732851</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C29" t="n">
-        <v>452.3709090732851</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D29" t="n">
-        <v>452.3709090732851</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E29" t="n">
-        <v>452.3709090732851</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F29" t="n">
-        <v>234.8012144439637</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G29" t="n">
-        <v>234.8012144439637</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H29" t="n">
-        <v>17.23151981464226</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I29" t="n">
-        <v>17.23151981464226</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J29" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K29" t="n">
-        <v>120.2465257255646</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L29" t="n">
-        <v>203.6264053839766</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M29" t="n">
-        <v>416.8664630901746</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N29" t="n">
-        <v>622.7209852974139</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O29" t="n">
-        <v>771.915935440062</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P29" t="n">
-        <v>861.5759907321129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>851.4843753638859</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>851.4843753638859</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>851.4843753638859</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>633.9146807345644</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>633.9146807345644</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>452.3709090732851</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>452.3709090732851</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
-        <v>452.3709090732851</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y29" t="n">
-        <v>452.3709090732851</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>127.2249676851904</v>
+        <v>284.0338015341832</v>
       </c>
       <c r="C30" t="n">
-        <v>127.2249676851904</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D30" t="n">
-        <v>127.2249676851904</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E30" t="n">
-        <v>127.2249676851904</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F30" t="n">
-        <v>17.23151981464226</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G30" t="n">
-        <v>17.23151981464226</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H30" t="n">
-        <v>17.23151981464226</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I30" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>142.5890798724797</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>355.8291375786776</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>569.0691952848756</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>782.3092529910735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O30" t="n">
-        <v>861.5759907321129</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
-        <v>861.5759907321129</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
-        <v>861.5759907321129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>760.4064612849986</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>760.4064612849986</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>760.4064612849986</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>760.4064612849986</v>
+        <v>762.634686410026</v>
       </c>
       <c r="V30" t="n">
-        <v>760.4064612849986</v>
+        <v>527.4825781782833</v>
       </c>
       <c r="W30" t="n">
-        <v>542.8367666556771</v>
+        <v>284.0338015341832</v>
       </c>
       <c r="X30" t="n">
-        <v>334.9852664501443</v>
+        <v>284.0338015341832</v>
       </c>
       <c r="Y30" t="n">
-        <v>127.2249676851904</v>
+        <v>284.0338015341832</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>44.54564482235524</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>83.73368301457742</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>127.4245336700137</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>151.763810304913</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>151.763810304913</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>151.763810304913</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>151.763810304913</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>151.763810304913</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>151.763810304913</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>17.23151981464226</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>17.23151981464226</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>17.23151981464226</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>17.23151981464226</v>
+        <v>57.48395942884579</v>
       </c>
       <c r="C32" t="n">
-        <v>17.23151981464226</v>
+        <v>57.48395942884579</v>
       </c>
       <c r="D32" t="n">
-        <v>17.23151981464226</v>
+        <v>57.48395942884579</v>
       </c>
       <c r="E32" t="n">
-        <v>17.23151981464226</v>
+        <v>57.48395942884579</v>
       </c>
       <c r="F32" t="n">
-        <v>17.23151981464226</v>
+        <v>57.48395942884579</v>
       </c>
       <c r="G32" t="n">
-        <v>17.23151981464226</v>
+        <v>57.48395942884579</v>
       </c>
       <c r="H32" t="n">
-        <v>17.23151981464226</v>
+        <v>57.48395942884579</v>
       </c>
       <c r="I32" t="n">
-        <v>17.23151981464226</v>
+        <v>29.30150906172561</v>
       </c>
       <c r="J32" t="n">
         <v>17.23151981464226</v>
@@ -6704,46 +6704,46 @@
         <v>120.2465257255646</v>
       </c>
       <c r="L32" t="n">
-        <v>300.3223773102232</v>
+        <v>203.6264053839766</v>
       </c>
       <c r="M32" t="n">
-        <v>513.5624350164212</v>
+        <v>416.8664630901746</v>
       </c>
       <c r="N32" t="n">
-        <v>719.4169572236606</v>
+        <v>622.7209852974139</v>
       </c>
       <c r="O32" t="n">
-        <v>861.5759907321129</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P32" t="n">
         <v>861.5759907321129</v>
       </c>
       <c r="Q32" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R32" t="n">
-        <v>851.4843753638859</v>
+        <v>710.1930433168102</v>
       </c>
       <c r="S32" t="n">
-        <v>669.9406037026066</v>
+        <v>710.1930433168102</v>
       </c>
       <c r="T32" t="n">
-        <v>452.3709090732851</v>
+        <v>710.1930433168102</v>
       </c>
       <c r="U32" t="n">
-        <v>452.3709090732851</v>
+        <v>710.1930433168102</v>
       </c>
       <c r="V32" t="n">
-        <v>452.3709090732851</v>
+        <v>710.1930433168102</v>
       </c>
       <c r="W32" t="n">
-        <v>452.3709090732851</v>
+        <v>492.6233486874887</v>
       </c>
       <c r="X32" t="n">
-        <v>452.3709090732851</v>
+        <v>492.6233486874887</v>
       </c>
       <c r="Y32" t="n">
-        <v>234.8012144439637</v>
+        <v>275.0536540581672</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>17.23151981464226</v>
+        <v>590.9101755581053</v>
       </c>
       <c r="C33" t="n">
-        <v>17.23151981464226</v>
+        <v>416.4571462769783</v>
       </c>
       <c r="D33" t="n">
-        <v>17.23151981464226</v>
+        <v>267.522736615727</v>
       </c>
       <c r="E33" t="n">
-        <v>17.23151981464226</v>
+        <v>108.2852816102715</v>
       </c>
       <c r="F33" t="n">
-        <v>17.23151981464226</v>
+        <v>108.2852816102715</v>
       </c>
       <c r="G33" t="n">
-        <v>17.23151981464226</v>
+        <v>108.2852816102715</v>
       </c>
       <c r="H33" t="n">
-        <v>17.23151981464226</v>
+        <v>108.2852816102715</v>
       </c>
       <c r="I33" t="n">
-        <v>17.23151981464226</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="J33" t="n">
         <v>17.23151981464226</v>
       </c>
       <c r="K33" t="n">
-        <v>142.5890798724797</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L33" t="n">
-        <v>142.5890798724797</v>
+        <v>221.8558176135191</v>
       </c>
       <c r="M33" t="n">
-        <v>355.8291375786776</v>
+        <v>435.095875319717</v>
       </c>
       <c r="N33" t="n">
-        <v>569.0691952848756</v>
+        <v>648.335933025915</v>
       </c>
       <c r="O33" t="n">
-        <v>782.3092529910735</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P33" t="n">
-        <v>792.1814322187836</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q33" t="n">
         <v>861.5759907321129</v>
       </c>
       <c r="R33" t="n">
-        <v>861.5759907321129</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="S33" t="n">
-        <v>861.5759907321129</v>
+        <v>590.9101755581053</v>
       </c>
       <c r="T33" t="n">
-        <v>669.9406037026066</v>
+        <v>590.9101755581053</v>
       </c>
       <c r="U33" t="n">
-        <v>452.3709090732851</v>
+        <v>590.9101755581053</v>
       </c>
       <c r="V33" t="n">
-        <v>234.8012144439637</v>
+        <v>590.9101755581053</v>
       </c>
       <c r="W33" t="n">
-        <v>17.23151981464226</v>
+        <v>590.9101755581053</v>
       </c>
       <c r="X33" t="n">
-        <v>17.23151981464226</v>
+        <v>590.9101755581053</v>
       </c>
       <c r="Y33" t="n">
-        <v>17.23151981464226</v>
+        <v>590.9101755581053</v>
       </c>
     </row>
     <row r="34">
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>17.23151981464226</v>
+        <v>149.0148802694519</v>
       </c>
       <c r="C34" t="n">
-        <v>17.23151981464226</v>
+        <v>149.0148802694519</v>
       </c>
       <c r="D34" t="n">
-        <v>17.23151981464226</v>
+        <v>149.0148802694519</v>
       </c>
       <c r="E34" t="n">
-        <v>17.23151981464226</v>
+        <v>149.0148802694519</v>
       </c>
       <c r="F34" t="n">
-        <v>17.23151981464226</v>
+        <v>149.0148802694519</v>
       </c>
       <c r="G34" t="n">
-        <v>17.23151981464226</v>
+        <v>149.0148802694519</v>
       </c>
       <c r="H34" t="n">
-        <v>17.23151981464226</v>
+        <v>149.0148802694519</v>
       </c>
       <c r="I34" t="n">
-        <v>17.23151981464226</v>
+        <v>134.028158140456</v>
       </c>
       <c r="J34" t="n">
-        <v>17.23151981464226</v>
+        <v>39.72595600240272</v>
       </c>
       <c r="K34" t="n">
         <v>17.23151981464226</v>
@@ -6874,34 +6874,34 @@
         <v>151.763810304913</v>
       </c>
       <c r="P34" t="n">
-        <v>151.763810304913</v>
+        <v>149.0148802694519</v>
       </c>
       <c r="Q34" t="n">
-        <v>151.763810304913</v>
+        <v>149.0148802694519</v>
       </c>
       <c r="R34" t="n">
-        <v>151.763810304913</v>
+        <v>149.0148802694519</v>
       </c>
       <c r="S34" t="n">
-        <v>151.763810304913</v>
+        <v>149.0148802694519</v>
       </c>
       <c r="T34" t="n">
-        <v>151.763810304913</v>
+        <v>149.0148802694519</v>
       </c>
       <c r="U34" t="n">
-        <v>151.763810304913</v>
+        <v>149.0148802694519</v>
       </c>
       <c r="V34" t="n">
-        <v>151.763810304913</v>
+        <v>149.0148802694519</v>
       </c>
       <c r="W34" t="n">
-        <v>17.23151981464226</v>
+        <v>149.0148802694519</v>
       </c>
       <c r="X34" t="n">
-        <v>17.23151981464226</v>
+        <v>149.0148802694519</v>
       </c>
       <c r="Y34" t="n">
-        <v>17.23151981464226</v>
+        <v>149.0148802694519</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>234.8012144439637</v>
+        <v>281.4919652670388</v>
       </c>
       <c r="C35" t="n">
-        <v>17.23151981464226</v>
+        <v>63.92227063771739</v>
       </c>
       <c r="D35" t="n">
-        <v>17.23151981464226</v>
+        <v>63.92227063771739</v>
       </c>
       <c r="E35" t="n">
-        <v>17.23151981464226</v>
+        <v>63.92227063771739</v>
       </c>
       <c r="F35" t="n">
-        <v>17.23151981464226</v>
+        <v>63.92227063771739</v>
       </c>
       <c r="G35" t="n">
-        <v>17.23151981464226</v>
+        <v>63.92227063771739</v>
       </c>
       <c r="H35" t="n">
-        <v>17.23151981464226</v>
+        <v>63.92227063771739</v>
       </c>
       <c r="I35" t="n">
-        <v>17.23151981464226</v>
+        <v>29.30150906172561</v>
       </c>
       <c r="J35" t="n">
         <v>17.23151981464226</v>
       </c>
       <c r="K35" t="n">
-        <v>23.55055379931807</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L35" t="n">
-        <v>203.6264053839766</v>
+        <v>300.3223773102232</v>
       </c>
       <c r="M35" t="n">
-        <v>416.8664630901746</v>
+        <v>513.5624350164212</v>
       </c>
       <c r="N35" t="n">
-        <v>622.7209852974139</v>
+        <v>719.4169572236606</v>
       </c>
       <c r="O35" t="n">
         <v>771.915935440062</v>
@@ -6956,31 +6956,31 @@
         <v>861.5759907321129</v>
       </c>
       <c r="Q35" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R35" t="n">
-        <v>851.4843753638859</v>
+        <v>710.1930433168102</v>
       </c>
       <c r="S35" t="n">
-        <v>851.4843753638859</v>
+        <v>499.0616598963603</v>
       </c>
       <c r="T35" t="n">
-        <v>851.4843753638859</v>
+        <v>499.0616598963603</v>
       </c>
       <c r="U35" t="n">
-        <v>633.9146807345644</v>
+        <v>499.0616598963603</v>
       </c>
       <c r="V35" t="n">
-        <v>633.9146807345644</v>
+        <v>499.0616598963603</v>
       </c>
       <c r="W35" t="n">
-        <v>452.3709090732851</v>
+        <v>499.0616598963603</v>
       </c>
       <c r="X35" t="n">
-        <v>234.8012144439637</v>
+        <v>499.0616598963603</v>
       </c>
       <c r="Y35" t="n">
-        <v>234.8012144439637</v>
+        <v>499.0616598963603</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>325.2670720263557</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C36" t="n">
-        <v>150.8140427452286</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D36" t="n">
-        <v>150.8140427452286</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E36" t="n">
         <v>17.23151981464226</v>
@@ -7023,13 +7023,13 @@
         <v>355.8291375786776</v>
       </c>
       <c r="M36" t="n">
-        <v>465.6924554125641</v>
+        <v>569.0691952848756</v>
       </c>
       <c r="N36" t="n">
-        <v>465.6924554125641</v>
+        <v>648.335933025915</v>
       </c>
       <c r="O36" t="n">
-        <v>678.932513118762</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P36" t="n">
         <v>861.5759907321129</v>
@@ -7041,25 +7041,25 @@
         <v>760.4064612849986</v>
       </c>
       <c r="S36" t="n">
-        <v>760.4064612849986</v>
+        <v>586.9891167356675</v>
       </c>
       <c r="T36" t="n">
-        <v>760.4064612849986</v>
+        <v>384.8025220944335</v>
       </c>
       <c r="U36" t="n">
-        <v>542.8367666556771</v>
+        <v>167.2328274651121</v>
       </c>
       <c r="V36" t="n">
-        <v>542.8367666556771</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="W36" t="n">
-        <v>325.2670720263557</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="X36" t="n">
-        <v>325.2670720263557</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="Y36" t="n">
-        <v>325.2670720263557</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="C37" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="D37" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="E37" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="F37" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="G37" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H37" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I37" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J37" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K37" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L37" t="n">
-        <v>44.54564482235524</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M37" t="n">
-        <v>83.73368301457742</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N37" t="n">
-        <v>127.4245336700137</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O37" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P37" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R37" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S37" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T37" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U37" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V37" t="n">
-        <v>151.763810304913</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="W37" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="X37" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="Y37" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>17.23151981464226</v>
+        <v>426.43660147347</v>
       </c>
       <c r="C38" t="n">
-        <v>17.23151981464226</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="D38" t="n">
-        <v>17.23151981464226</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="E38" t="n">
-        <v>17.23151981464226</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="F38" t="n">
-        <v>17.23151981464226</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="G38" t="n">
-        <v>17.23151981464226</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="H38" t="n">
-        <v>17.23151981464226</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="I38" t="n">
         <v>17.23151981464226</v>
@@ -7178,46 +7178,46 @@
         <v>120.2465257255646</v>
       </c>
       <c r="L38" t="n">
-        <v>300.3223773102232</v>
+        <v>203.6264053839766</v>
       </c>
       <c r="M38" t="n">
-        <v>513.5624350164212</v>
+        <v>416.8664630901746</v>
       </c>
       <c r="N38" t="n">
-        <v>719.4169572236606</v>
+        <v>622.7209852974139</v>
       </c>
       <c r="O38" t="n">
-        <v>861.5759907321129</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P38" t="n">
         <v>861.5759907321129</v>
       </c>
       <c r="Q38" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R38" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S38" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T38" t="n">
-        <v>633.9146807345644</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="U38" t="n">
-        <v>416.3449861052429</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="V38" t="n">
-        <v>198.7752914759215</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="W38" t="n">
-        <v>17.23151981464226</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="X38" t="n">
-        <v>17.23151981464226</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="Y38" t="n">
-        <v>17.23151981464226</v>
+        <v>426.43660147347</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>17.23151981464226</v>
+        <v>499.856413762476</v>
       </c>
       <c r="C39" t="n">
-        <v>17.23151981464226</v>
+        <v>325.403384481349</v>
       </c>
       <c r="D39" t="n">
-        <v>17.23151981464226</v>
+        <v>176.4689748200978</v>
       </c>
       <c r="E39" t="n">
         <v>17.23151981464226</v>
@@ -7254,22 +7254,22 @@
         <v>17.23151981464226</v>
       </c>
       <c r="K39" t="n">
-        <v>142.5890798724797</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L39" t="n">
-        <v>355.8291375786776</v>
+        <v>230.4715775208402</v>
       </c>
       <c r="M39" t="n">
-        <v>396.2978968992348</v>
+        <v>443.7116352270382</v>
       </c>
       <c r="N39" t="n">
-        <v>396.2978968992348</v>
+        <v>656.9516929332361</v>
       </c>
       <c r="O39" t="n">
-        <v>609.5379546054328</v>
+        <v>678.932513118762</v>
       </c>
       <c r="P39" t="n">
-        <v>792.1814322187836</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q39" t="n">
         <v>861.5759907321129</v>
@@ -7284,19 +7284,19 @@
         <v>861.5759907321129</v>
       </c>
       <c r="U39" t="n">
-        <v>644.0062961027915</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V39" t="n">
-        <v>426.43660147347</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W39" t="n">
-        <v>208.8669068441485</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X39" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y39" t="n">
-        <v>17.23151981464226</v>
+        <v>668.0717507825441</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="C40" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="D40" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="E40" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="F40" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="G40" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="H40" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="I40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L40" t="n">
-        <v>44.54564482235524</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M40" t="n">
-        <v>83.73368301457742</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N40" t="n">
-        <v>127.4245336700137</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W40" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X40" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y40" t="n">
-        <v>17.23151981464226</v>
+        <v>861.5759907321129</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>663.8141338692145</v>
+        <v>206.9568616895446</v>
       </c>
       <c r="C41" t="n">
-        <v>663.8141338692145</v>
+        <v>206.9568616895446</v>
       </c>
       <c r="D41" t="n">
-        <v>663.8141338692145</v>
+        <v>206.9568616895446</v>
       </c>
       <c r="E41" t="n">
-        <v>663.8141338692145</v>
+        <v>206.9568616895446</v>
       </c>
       <c r="F41" t="n">
-        <v>448.2340696092722</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="G41" t="n">
-        <v>232.6540053493298</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="H41" t="n">
         <v>17.07394108938743</v>
@@ -7412,49 +7412,49 @@
         <v>17.07394108938743</v>
       </c>
       <c r="K41" t="n">
-        <v>120.0889470003098</v>
+        <v>17.62165426160527</v>
       </c>
       <c r="L41" t="n">
-        <v>300.1647985849684</v>
+        <v>197.6975058462639</v>
       </c>
       <c r="M41" t="n">
-        <v>498.6475821194843</v>
+        <v>408.9875268274333</v>
       </c>
       <c r="N41" t="n">
-        <v>704.5021043267236</v>
+        <v>614.8420490346726</v>
       </c>
       <c r="O41" t="n">
-        <v>853.6970544693717</v>
+        <v>764.0369991773207</v>
       </c>
       <c r="P41" t="n">
         <v>853.6970544693717</v>
       </c>
       <c r="Q41" t="n">
-        <v>843.6054391011446</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="R41" t="n">
-        <v>843.6054391011446</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="S41" t="n">
-        <v>663.8141338692145</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="T41" t="n">
-        <v>663.8141338692145</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="U41" t="n">
-        <v>663.8141338692145</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="V41" t="n">
-        <v>663.8141338692145</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="W41" t="n">
-        <v>663.8141338692145</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="X41" t="n">
-        <v>663.8141338692145</v>
+        <v>422.536925949487</v>
       </c>
       <c r="Y41" t="n">
-        <v>663.8141338692145</v>
+        <v>422.536925949487</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7464,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>338.0615283436294</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="C42" t="n">
-        <v>163.6084990625025</v>
+        <v>814.9340865346437</v>
       </c>
       <c r="D42" t="n">
-        <v>163.6084990625025</v>
+        <v>665.9996768733924</v>
       </c>
       <c r="E42" t="n">
-        <v>163.6084990625025</v>
+        <v>506.7622218679369</v>
       </c>
       <c r="F42" t="n">
-        <v>17.07394108938743</v>
+        <v>360.2276638948218</v>
       </c>
       <c r="G42" t="n">
-        <v>17.07394108938743</v>
+        <v>221.4968384774373</v>
       </c>
       <c r="H42" t="n">
-        <v>17.07394108938743</v>
+        <v>108.1277028850167</v>
       </c>
       <c r="I42" t="n">
-        <v>17.07394108938743</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="J42" t="n">
         <v>17.07394108938743</v>
       </c>
       <c r="K42" t="n">
-        <v>37.1835139125123</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="L42" t="n">
-        <v>248.4735348936818</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="M42" t="n">
-        <v>459.7635558748512</v>
+        <v>179.0789763803525</v>
       </c>
       <c r="N42" t="n">
-        <v>459.7635558748512</v>
+        <v>390.368997361522</v>
       </c>
       <c r="O42" t="n">
-        <v>671.0535768560208</v>
+        <v>601.6590183426915</v>
       </c>
       <c r="P42" t="n">
-        <v>853.6970544693717</v>
+        <v>784.3024959560423</v>
       </c>
       <c r="Q42" t="n">
         <v>853.6970544693717</v>
@@ -7515,25 +7515,25 @@
         <v>853.6970544693717</v>
       </c>
       <c r="S42" t="n">
-        <v>680.2797099200405</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="T42" t="n">
-        <v>680.2797099200405</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="U42" t="n">
-        <v>680.2797099200405</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="V42" t="n">
-        <v>680.2797099200405</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="W42" t="n">
-        <v>680.2797099200405</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="X42" t="n">
-        <v>680.2797099200405</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="Y42" t="n">
-        <v>506.2768653636975</v>
+        <v>853.6970544693717</v>
       </c>
     </row>
     <row r="43">
@@ -7606,7 +7606,7 @@
         <v>151.6062315796582</v>
       </c>
       <c r="W43" t="n">
-        <v>17.07394108938743</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="X43" t="n">
         <v>17.07394108938743</v>
@@ -8222,16 +8222,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>254.9313611413124</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>255.0333547912217</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,16 +8295,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>163.4617301689898</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>164.174670974505</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>167.7543251166491</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>155.926839997373</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>142.5962444444444</v>
@@ -8377,16 +8377,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M7" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N7" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O7" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8453,19 +8453,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>244.6749789590202</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>255.9665244219036</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N8" t="n">
         <v>255.0333547912217</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P8" t="n">
         <v>256.8532869499004</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L9" t="n">
-        <v>163.1395076939139</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>155.926839997373</v>
       </c>
       <c r="O9" t="n">
-        <v>168.2165356390753</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>159.5946986089611</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,19 +8693,19 @@
         <v>245.7101422396114</v>
       </c>
       <c r="L11" t="n">
-        <v>261.3867061646181</v>
+        <v>260.3515428840269</v>
       </c>
       <c r="M11" t="n">
-        <v>254.9313611413124</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O11" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8772,7 +8772,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>163.1395076939139</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>167.7543251166491</v>
@@ -8781,13 +8781,13 @@
         <v>156.9620032779641</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>158.5595353283699</v>
       </c>
       <c r="Q12" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8933,16 +8933,16 @@
         <v>261.3867061646181</v>
       </c>
       <c r="M14" t="n">
-        <v>254.9313611413124</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>253.9981915106306</v>
       </c>
       <c r="O14" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,22 +9009,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N15" t="n">
-        <v>155.926839997373</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O15" t="n">
-        <v>168.2165356390753</v>
+        <v>167.1813723584841</v>
       </c>
       <c r="P15" t="n">
-        <v>159.5946986089611</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9167,19 +9167,19 @@
         <v>247.6798763052967</v>
       </c>
       <c r="L17" t="n">
-        <v>263.3564402303034</v>
+        <v>262.2416917349371</v>
       </c>
       <c r="M17" t="n">
-        <v>256.8215099922226</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P17" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9246,13 +9246,13 @@
         <v>165.4314642346751</v>
       </c>
       <c r="L18" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>168.6093106869681</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9720,19 +9720,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9960,16 +9960,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>174.6270615612551</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10112,13 +10112,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L29" t="n">
-        <v>319.9885156350499</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>445.740230910301</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>353.9483774629024</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>357.5280316050465</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>346.7357097663615</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>222.6636563040802</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>319.9885156350499</v>
       </c>
       <c r="M32" t="n">
         <v>445.740230910301</v>
@@ -10361,10 +10361,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>373.6931947635578</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>345.2455896777295</v>
       </c>
       <c r="M33" t="n">
         <v>357.5280316050465</v>
@@ -10443,10 +10443,10 @@
         <v>357.9902421274727</v>
       </c>
       <c r="P33" t="n">
-        <v>143.9463056241383</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>226.4727136557642</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>283.1274823473447</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10671,16 +10671,16 @@
         <v>353.9483774629024</v>
       </c>
       <c r="M36" t="n">
-        <v>253.1070822390753</v>
+        <v>357.5280316050465</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>211.409123942969</v>
       </c>
       <c r="O36" t="n">
         <v>357.9902421274727</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>319.9885156350499</v>
       </c>
       <c r="M38" t="n">
         <v>445.740230910301</v>
@@ -10835,10 +10835,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>373.6931947635578</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>353.9483774629024</v>
       </c>
       <c r="M39" t="n">
-        <v>183.0115685892478</v>
+        <v>357.5280316050465</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O39" t="n">
-        <v>357.9902421274727</v>
+        <v>164.7990931166928</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,13 +11060,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>220.6430966734834</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>430.8338933631474</v>
+        <v>443.7704968446156</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,16 +11139,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>158.1541387956972</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>351.9786433972171</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>355.5582975393612</v>
+        <v>305.775483710872</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>344.7659757006762</v>
       </c>
       <c r="O42" t="n">
         <v>356.0205080617874</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -22802,10 +22802,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>209.8495256553324</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,16 +22826,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>124.2488267465189</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>183.3997783916145</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>197.4755583695005</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22872,19 +22872,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>123.2494512354109</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>111.7232259685798</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>86.61515304186563</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>63.77634165678425</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22981,19 +22981,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>60.54175205706355</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>151.6731001825387</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>198.3963068423414</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>208.1006776791572</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23030,16 +23030,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>384.3096932574806</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>389.6824463205042</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>313.8545109211363</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>184.8555983757751</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23063,19 +23063,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>124.2488267465189</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>183.3997783916145</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>197.4755583695005</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>238.7699996381505</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23191,19 +23191,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>167.6941187001108</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>136.6068813128088</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>129.8301837326275</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>67.73888892204195</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,19 +23218,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>60.54175205706355</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>151.6731001825387</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>198.3963068423414</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>208.1006776791572</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23279,7 +23279,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,22 +23300,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>124.2488267465189</v>
       </c>
       <c r="S11" t="n">
-        <v>186.4537171020145</v>
+        <v>183.3997783916145</v>
       </c>
       <c r="T11" t="n">
         <v>197.4755583695005</v>
       </c>
       <c r="U11" t="n">
-        <v>225.7253617132057</v>
+        <v>250.719288992763</v>
       </c>
       <c r="V11" t="n">
-        <v>302.1319672755041</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23382,19 +23382,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>74.5375429580123</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>146.062879909207</v>
+        <v>149.116818619607</v>
       </c>
       <c r="T12" t="n">
         <v>174.5444375001908</v>
       </c>
       <c r="U12" t="n">
-        <v>203.375029596744</v>
+        <v>200.321090886344</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>207.1802959547944</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>157.2656276977065</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>141.626529903997</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>122.9951818235815</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23437,10 +23437,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>67.73888892204195</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,10 +23455,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>60.54175205706355</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23473,10 +23473,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>228.9419322059557</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>260.9027071419601</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>360.1674891792497</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>329.0627504260521</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>359.3640175880309</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>381.2557545470806</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>389.6824463205042</v>
       </c>
       <c r="H14" t="n">
         <v>313.8545109211363</v>
       </c>
       <c r="I14" t="n">
-        <v>184.8555983757751</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23577,25 +23577,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>121.8247743700079</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>132.0247892607701</v>
       </c>
       <c r="F15" t="n">
-        <v>123.2494512354109</v>
+        <v>119.4489211987531</v>
       </c>
       <c r="G15" t="n">
-        <v>111.7232259685798</v>
+        <v>114.7771646789798</v>
       </c>
       <c r="H15" t="n">
-        <v>86.61515304186563</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>63.77634165678425</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>379.2860204813953</v>
+        <v>382.574751492425</v>
       </c>
       <c r="G17" t="n">
         <v>387.7127122548189</v>
@@ -23750,7 +23750,7 @@
         <v>311.884776855451</v>
       </c>
       <c r="I17" t="n">
-        <v>186.1745953211195</v>
+        <v>182.8858643100898</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23856,19 +23856,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S18" t="n">
-        <v>147.3818768545514</v>
+        <v>144.0931458435217</v>
       </c>
       <c r="T18" t="n">
         <v>172.5747034345055</v>
       </c>
       <c r="U18" t="n">
-        <v>198.3513568206587</v>
+        <v>201.6400878316884</v>
       </c>
       <c r="V18" t="n">
-        <v>205.2105618891091</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>157.3832208214279</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23932,10 +23932,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>58.57201799137825</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>149.7033661168533</v>
       </c>
       <c r="S19" t="n">
         <v>196.4265727766561</v>
@@ -23944,16 +23944,16 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>263.8702699959815</v>
       </c>
       <c r="V19" t="n">
-        <v>224.5476180635119</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>198.119630128721</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23978,16 +23978,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>207.2105735132092</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24017,19 +24017,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>119.0371437604433</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>49.74981582707102</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24093,13 +24093,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>33.56424476846735</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24108,13 +24108,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24206,7 +24206,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24221,10 +24221,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>328.2817459595876</v>
       </c>
       <c r="I23" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24254,13 +24254,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24282,10 +24282,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>107.3451247517736</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24297,7 +24297,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24306,7 +24306,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24336,16 +24336,16 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>168.8745412198571</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24382,7 +24382,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
         <v>93.35918011667277</v>
@@ -24443,19 +24443,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>98.46051323810809</v>
@@ -24488,10 +24488,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -24509,7 +24509,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>301.8181508768923</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,16 +24519,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>135.1096871576</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24543,7 +24543,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24579,10 +24579,10 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>123.4650857006187</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24661,7 +24661,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24680,7 +24680,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24689,19 +24689,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>191.4820480586832</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>124.0808044327389</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24731,19 +24731,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>7.701851881103124</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>148.0239245254684</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24759,7 +24759,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24768,7 +24768,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>36.17569900154123</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24777,7 +24777,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24804,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24813,19 +24813,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>26.53313767137072</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>36.30098547789137</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24892,13 +24892,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24935,10 +24935,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>182.5752637069569</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,16 +24959,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>29.29173564157887</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>7.701851881103124</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24977,7 +24977,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>133.8469710343848</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24996,13 +24996,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25014,10 +25014,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,22 +25041,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>3.881848234213408</v>
       </c>
       <c r="T33" t="n">
-        <v>10.44569553561035</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>10.54738439794659</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>17.40658946639704</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>36.30098547789137</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25093,13 +25093,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J34" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25114,7 +25114,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>86.16204325169439</v>
@@ -25135,7 +25135,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>167.3398439804523</v>
       </c>
       <c r="C35" t="n">
         <v>149.8788940879793</v>
@@ -25172,10 +25172,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>176.2013356101741</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,28 +25196,28 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>35.95165522480826</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>169.5126347727465</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>154.3371029954408</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25233,13 +25233,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>25.39838275412043</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25281,19 +25281,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>10.54738439794659</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>84.29929257546016</v>
       </c>
       <c r="W36" t="n">
-        <v>36.30098547789137</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25369,10 +25369,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25391,7 +25391,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>149.8788940879793</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25409,7 +25409,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>20.75685641119472</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25445,19 +25445,19 @@
         <v>7.701851881103124</v>
       </c>
       <c r="U38" t="n">
-        <v>35.95165522480826</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>112.3582607871067</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>169.5126347727466</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>170.8439409730254</v>
       </c>
     </row>
     <row r="39">
@@ -25467,16 +25467,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25524,19 +25524,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>10.54738439794659</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>17.40658946639704</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>36.30098547789137</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>16.05395204426628</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>14.11349822723122</v>
       </c>
     </row>
     <row r="40">
@@ -25567,7 +25567,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J40" t="n">
         <v>93.35918011667277</v>
@@ -25609,7 +25609,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>169.3095780461377</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25637,13 +25637,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>193.4517821243685</v>
+        <v>218.8919543475558</v>
       </c>
       <c r="G41" t="n">
-        <v>201.8784738977921</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>126.0505384984242</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25670,13 +25670,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>31.02667740663455</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25688,10 +25688,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>135.8167051000701</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>156.3068370611261</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25704,31 +25704,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>134.3331607329351</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25755,7 +25755,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25773,7 +25773,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>33.41987966652474</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25846,10 +25846,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>350049.7958156169</v>
+        <v>327897.5868709115</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>351685.0495668239</v>
+        <v>351685.0495668242</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>506909.1411107078</v>
+        <v>506909.1411107077</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>506909.1411107078</v>
+        <v>506909.1411107076</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>506909.1411107078</v>
+        <v>506909.1411107076</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>488398.3911706115</v>
+        <v>506909.1411107078</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>488398.3911706117</v>
+        <v>488398.3911706114</v>
       </c>
     </row>
     <row r="14">
@@ -26314,31 +26314,31 @@
         <v>59129.07304229552</v>
       </c>
       <c r="C2" t="n">
+        <v>59129.07304229552</v>
+      </c>
+      <c r="D2" t="n">
+        <v>63121.07616893066</v>
+      </c>
+      <c r="E2" t="n">
         <v>63121.07616893065</v>
-      </c>
-      <c r="D2" t="n">
-        <v>63121.07616893069</v>
-      </c>
-      <c r="E2" t="n">
-        <v>63121.07616893067</v>
       </c>
       <c r="F2" t="n">
         <v>63121.07616893067</v>
       </c>
       <c r="G2" t="n">
-        <v>63415.76181874351</v>
+        <v>63415.7618187435</v>
       </c>
       <c r="H2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="I2" t="n">
         <v>91388.3698922328</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>91388.36989223282</v>
       </c>
-      <c r="J2" t="n">
-        <v>91388.36989223283</v>
-      </c>
       <c r="K2" t="n">
-        <v>88052.58645764728</v>
+        <v>91388.36989223279</v>
       </c>
       <c r="L2" t="n">
         <v>88052.58645764727</v>
@@ -26347,7 +26347,7 @@
         <v>88052.58645764725</v>
       </c>
       <c r="N2" t="n">
-        <v>88052.58645764725</v>
+        <v>88052.58645764727</v>
       </c>
       <c r="O2" t="n">
         <v>87796.12542771842</v>
@@ -26366,10 +26366,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>8277.16505176914</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>7958.431053788175</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10498.77007143031</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="C4" t="n">
-        <v>11244.18577987448</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="D4" t="n">
-        <v>11244.18577987448</v>
+        <v>11513.51303840759</v>
       </c>
       <c r="E4" t="n">
-        <v>11244.18577987448</v>
+        <v>11513.51303840759</v>
       </c>
       <c r="F4" t="n">
-        <v>11244.18577987448</v>
+        <v>11513.51303840759</v>
       </c>
       <c r="G4" t="n">
-        <v>11299.21161664248</v>
+        <v>11569.82013495752</v>
       </c>
       <c r="H4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>15899.57777605043</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>15899.57777605044</v>
+        <v>16277.30441356933</v>
       </c>
       <c r="M4" t="n">
-        <v>15899.57777605043</v>
+        <v>16277.30441356933</v>
       </c>
       <c r="N4" t="n">
-        <v>15899.57777605044</v>
+        <v>16277.30441356933</v>
       </c>
       <c r="O4" t="n">
-        <v>15851.6895168862</v>
+        <v>16228.30109093496</v>
       </c>
       <c r="P4" t="n">
-        <v>10498.77007143031</v>
+        <v>10750.74055314464</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>35185.31370463355</v>
+        <v>33627.6</v>
       </c>
       <c r="D5" t="n">
         <v>35185.31370463355</v>
@@ -26494,7 +26494,7 @@
         <v>14653.66876376167</v>
       </c>
       <c r="K5" t="n">
-        <v>13095.95505912812</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="L5" t="n">
         <v>13095.95505912812</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15002.7029708652</v>
+        <v>14750.73248915088</v>
       </c>
       <c r="C6" t="n">
-        <v>8414.411632653479</v>
+        <v>14750.73248915088</v>
       </c>
       <c r="D6" t="n">
-        <v>16691.57668442265</v>
+        <v>8463.818372101341</v>
       </c>
       <c r="E6" t="n">
-        <v>50319.17668442264</v>
+        <v>50049.84942588951</v>
       </c>
       <c r="F6" t="n">
-        <v>50319.17668442264</v>
+        <v>50049.84942588953</v>
       </c>
       <c r="G6" t="n">
-        <v>49899.20210488045</v>
+        <v>49628.5935865654</v>
       </c>
       <c r="H6" t="n">
-        <v>2628.454590704168</v>
+        <v>2236.224345158629</v>
       </c>
       <c r="I6" t="n">
-        <v>60212.24173303586</v>
+        <v>59820.01148749029</v>
       </c>
       <c r="J6" t="n">
-        <v>60212.24173303589</v>
+        <v>59820.01148749031</v>
       </c>
       <c r="K6" t="n">
-        <v>59057.05362246874</v>
+        <v>59820.01148749028</v>
       </c>
       <c r="L6" t="n">
-        <v>59057.05362246872</v>
+        <v>58679.32698494982</v>
       </c>
       <c r="M6" t="n">
-        <v>59057.05362246871</v>
+        <v>58679.3269849498</v>
       </c>
       <c r="N6" t="n">
-        <v>59057.05362246869</v>
+        <v>58679.32698494982</v>
       </c>
       <c r="O6" t="n">
-        <v>58968.24068289778</v>
+        <v>58591.62910884902</v>
       </c>
       <c r="P6" t="n">
-        <v>48630.30297086521</v>
+        <v>48378.33248915088</v>
       </c>
     </row>
   </sheetData>
@@ -26790,7 +26790,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>25.62029119463083</v>
@@ -26814,7 +26814,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>215.3939976830282</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="L4" t="n">
         <v>215.3939976830282</v>
@@ -27012,10 +27012,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>25.62029119463082</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27258,10 +27258,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>25.62029119463082</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -34942,16 +34942,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,16 +35015,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35097,16 +35097,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>25.62029119463084</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>24.58512791403969</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>25.62029119463083</v>
       </c>
       <c r="N8" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P8" t="n">
         <v>25.62029119463083</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L9" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="M9" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="N9" t="n">
         <v>24.58512791403969</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35343,7 +35343,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="O10" t="n">
-        <v>24.58512791403967</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35413,19 +35413,19 @@
         <v>25.62029119463083</v>
       </c>
       <c r="L11" t="n">
+        <v>24.58512791403969</v>
+      </c>
+      <c r="M11" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="M11" t="n">
-        <v>24.58512791403969</v>
-      </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>25.62029119463083</v>
@@ -35501,13 +35501,13 @@
         <v>25.62029119463083</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="Q12" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,16 +35653,16 @@
         <v>25.62029119463083</v>
       </c>
       <c r="M14" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="N14" t="n">
         <v>24.58512791403969</v>
       </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N15" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="O15" t="n">
         <v>24.58512791403969</v>
       </c>
-      <c r="O15" t="n">
-        <v>25.62029119463083</v>
-      </c>
       <c r="P15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35887,19 +35887,19 @@
         <v>27.59002526031614</v>
       </c>
       <c r="L17" t="n">
+        <v>26.47527676494984</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="M17" t="n">
-        <v>26.47527676494983</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P17" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35966,13 +35966,13 @@
         <v>27.59002526031614</v>
       </c>
       <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>26.47527676494983</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M20" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
         <v>207.9338608153932</v>
@@ -36440,19 +36440,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36680,16 +36680,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>43.28534947792182</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36835,10 +36835,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L29" t="n">
-        <v>84.22210066506267</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M29" t="n">
-        <v>215.3939976830282</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N29" t="n">
         <v>207.9338608153932</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>215.3939976830282</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>215.3939976830282</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>215.3939976830282</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>80.06741185963574</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L32" t="n">
-        <v>181.8947995804632</v>
+        <v>84.22210066506267</v>
       </c>
       <c r="M32" t="n">
         <v>215.3939976830282</v>
@@ -37081,10 +37081,10 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
-        <v>143.5949833418711</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37148,10 +37148,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>206.6912098978554</v>
       </c>
       <c r="M33" t="n">
         <v>215.3939976830282</v>
@@ -37163,10 +37163,10 @@
         <v>215.3939976830282</v>
       </c>
       <c r="P33" t="n">
-        <v>9.971898209808115</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>6.382862610783645</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L35" t="n">
         <v>181.8947995804632</v>
@@ -37318,7 +37318,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410586</v>
+        <v>53.02927092565796</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37391,16 +37391,16 @@
         <v>215.3939976830282</v>
       </c>
       <c r="M36" t="n">
-        <v>110.973048317057</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>80.06741185963574</v>
       </c>
       <c r="O36" t="n">
         <v>215.3939976830282</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L38" t="n">
-        <v>181.8947995804632</v>
+        <v>84.22210066506267</v>
       </c>
       <c r="M38" t="n">
         <v>215.3939976830282</v>
@@ -37555,10 +37555,10 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>143.5949833418711</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>215.3939976830282</v>
       </c>
       <c r="M39" t="n">
-        <v>40.87753466722953</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O39" t="n">
-        <v>215.3939976830282</v>
+        <v>22.20284867224837</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>0.5532456285028686</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>200.4876601358747</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37795,7 +37795,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>20.31269982133825</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>163.6414497888537</v>
+      </c>
+      <c r="N42" t="n">
         <v>213.4242636173429</v>
-      </c>
-      <c r="M42" t="n">
-        <v>213.4242636173429</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>213.4242636173429</v>
@@ -37877,7 +37877,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
